--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TD\Desktop\full stack training\web0\session nine\myPractice\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B98F64D-6FFC-49C3-AAEE-B023EE0C3D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BCD95F-B1D7-4107-B820-3A49D4A49A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TD\Desktop\full stack training\web0\session nine\myPractice\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BCD95F-B1D7-4107-B820-3A49D4A49A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C54FCC-34CB-4786-BCF3-F3B534B0635F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Title</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>description 6</t>
+  </si>
+  <si>
+    <t>title 7</t>
+  </si>
+  <si>
+    <t>description 7</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +457,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
